--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1677,28 +1677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.0817705971827</v>
+        <v>176.9819634921839</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.7167437882814</v>
+        <v>242.1545303430716</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.9879878899588</v>
+        <v>219.0436418332169</v>
       </c>
       <c r="AD2" t="n">
-        <v>151081.7705971827</v>
+        <v>176981.9634921839</v>
       </c>
       <c r="AE2" t="n">
-        <v>206716.7437882814</v>
+        <v>242154.5303430716</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.192695104996614e-06</v>
+        <v>6.0444593325426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.249348958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>186987.9878899588</v>
+        <v>219043.6418332169</v>
       </c>
     </row>
     <row r="3">
@@ -1783,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.87673472871606</v>
+        <v>108.1435598282338</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.3415576543593</v>
+        <v>147.9667895140689</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.4745739063322</v>
+        <v>133.8450467955798</v>
       </c>
       <c r="AD3" t="n">
-        <v>90876.73472871605</v>
+        <v>108143.5598282338</v>
       </c>
       <c r="AE3" t="n">
-        <v>124341.5576543593</v>
+        <v>147966.7895140689</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.024256586195533e-06</v>
+        <v>8.684956342440791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.045572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>112474.5739063322</v>
+        <v>133845.0467955798</v>
       </c>
     </row>
     <row r="4">
@@ -1889,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.10254728827981</v>
+        <v>108.3693723877976</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.6505243605014</v>
+        <v>148.2757562202109</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.7540532636776</v>
+        <v>134.1245261529252</v>
       </c>
       <c r="AD4" t="n">
-        <v>91102.54728827981</v>
+        <v>108369.3723877976</v>
       </c>
       <c r="AE4" t="n">
-        <v>124650.5243605014</v>
+        <v>148275.7562202109</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.020988775019412e-06</v>
+        <v>8.680245255355794e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.048828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>112754.0532636776</v>
+        <v>134124.5261529252</v>
       </c>
     </row>
   </sheetData>
@@ -2186,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.6662798519617</v>
+        <v>125.9185505169704</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.7360451762273</v>
+        <v>172.2873159516308</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.5907103383986</v>
+        <v>155.8444563240217</v>
       </c>
       <c r="AD2" t="n">
-        <v>100666.2798519617</v>
+        <v>125918.5505169704</v>
       </c>
       <c r="AE2" t="n">
-        <v>137736.0451762273</v>
+        <v>172287.3159516308</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.32139770849172e-06</v>
+        <v>7.790326059822312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.908203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>124590.7103383986</v>
+        <v>155844.4563240217</v>
       </c>
     </row>
     <row r="3">
@@ -2292,28 +2292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.55643903590291</v>
+        <v>104.3913756544598</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.7985826063468</v>
+        <v>142.8328855928309</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.365174020795</v>
+        <v>129.2011154591037</v>
       </c>
       <c r="AD3" t="n">
-        <v>87556.43903590291</v>
+        <v>104391.3756544598</v>
       </c>
       <c r="AE3" t="n">
-        <v>119798.5826063468</v>
+        <v>142832.8855928309</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.13271889464891e-06</v>
+        <v>8.978069755302979e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.126953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>108365.174020795</v>
+        <v>129201.1154591037</v>
       </c>
     </row>
   </sheetData>
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.58456382431687</v>
+        <v>114.8011786810155</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.3100406501757</v>
+        <v>157.0760373418548</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.3506262443026</v>
+        <v>142.0849207955943</v>
       </c>
       <c r="AD2" t="n">
-        <v>91584.56382431688</v>
+        <v>114801.1786810155</v>
       </c>
       <c r="AE2" t="n">
-        <v>125310.0406501757</v>
+        <v>157076.0373418548</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.833793264917766e-06</v>
+        <v>9.025598262936423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.012369791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>113350.6262443026</v>
+        <v>142084.9207955943</v>
       </c>
     </row>
   </sheetData>
@@ -2886,28 +2886,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.10367123201189</v>
+        <v>108.1680677672453</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.0743533717006</v>
+        <v>148.0003223574383</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.0918185938045</v>
+        <v>133.8753793114417</v>
       </c>
       <c r="AD2" t="n">
-        <v>84103.6712320119</v>
+        <v>108168.0677672453</v>
       </c>
       <c r="AE2" t="n">
-        <v>115074.3533717006</v>
+        <v>148000.3223574383</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.072715667909091e-06</v>
+        <v>9.17765856095863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.52734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>104091.8185938045</v>
+        <v>133875.3793114417</v>
       </c>
     </row>
   </sheetData>
@@ -3183,28 +3183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.2189139617181</v>
+        <v>123.3688196557107</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.5462306106063</v>
+        <v>168.7986617010703</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.3733973734227</v>
+        <v>152.6887543387766</v>
       </c>
       <c r="AD2" t="n">
-        <v>93218.91396171811</v>
+        <v>123368.8196557107</v>
       </c>
       <c r="AE2" t="n">
-        <v>127546.2306106063</v>
+        <v>168798.6617010703</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.435299864184594e-06</v>
+        <v>8.590426159254143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.702473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>115373.3973734227</v>
+        <v>152688.7543387766</v>
       </c>
     </row>
   </sheetData>
@@ -3480,28 +3480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.7618558528821</v>
+        <v>142.0991524641821</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.7587223473732</v>
+        <v>194.4263293735725</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.5115741093589</v>
+        <v>175.8705533772809</v>
       </c>
       <c r="AD2" t="n">
-        <v>116761.855852882</v>
+        <v>142099.1524641821</v>
       </c>
       <c r="AE2" t="n">
-        <v>159758.7223473732</v>
+        <v>194426.3293735725</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.997257439809829e-06</v>
+        <v>7.285433103644651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.233723958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>144511.5741093589</v>
+        <v>175870.5533772809</v>
       </c>
     </row>
     <row r="3">
@@ -3586,28 +3586,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.91267225143048</v>
+        <v>104.8611270648619</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.2859966077317</v>
+        <v>143.4756201965124</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.8060699139778</v>
+        <v>129.7825083742937</v>
       </c>
       <c r="AD3" t="n">
-        <v>87912.67225143049</v>
+        <v>104861.1270648619</v>
       </c>
       <c r="AE3" t="n">
-        <v>120285.9966077317</v>
+        <v>143475.6201965124</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.143578982469239e-06</v>
+        <v>8.956639563368225e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.071614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>108806.0699139778</v>
+        <v>129782.5083742937</v>
       </c>
     </row>
   </sheetData>
@@ -3883,28 +3883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.3096219189873</v>
+        <v>132.8804776425699</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.3527824083515</v>
+        <v>181.8129317834193</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.8622712452127</v>
+        <v>164.4609607501131</v>
       </c>
       <c r="AD2" t="n">
-        <v>103309.6219189873</v>
+        <v>132880.4776425699</v>
       </c>
       <c r="AE2" t="n">
-        <v>141352.7824083515</v>
+        <v>181812.9317834193</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.08092745420491e-06</v>
+        <v>8.140839279697203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.340494791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>127862.2712452127</v>
+        <v>164460.9607501131</v>
       </c>
     </row>
   </sheetData>
@@ -4180,28 +4180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.03788391700203</v>
+        <v>110.5669301823282</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.7208284987441</v>
+        <v>151.2825517440938</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.485717849075</v>
+        <v>136.8443573320736</v>
       </c>
       <c r="AD2" t="n">
-        <v>86037.88391700204</v>
+        <v>110566.9301823282</v>
       </c>
       <c r="AE2" t="n">
-        <v>117720.8284987441</v>
+        <v>151282.5517440938</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.107433470085824e-06</v>
+        <v>9.068581039977781e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.302734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>106485.717849075</v>
+        <v>136844.3573320736</v>
       </c>
     </row>
     <row r="3">
@@ -4286,28 +4286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.51886902512756</v>
+        <v>101.9853841776242</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.0106894263607</v>
+        <v>139.5409019093735</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.8433534530733</v>
+        <v>126.2233140780663</v>
       </c>
       <c r="AD3" t="n">
-        <v>85518.86902512755</v>
+        <v>101985.3841776242</v>
       </c>
       <c r="AE3" t="n">
-        <v>117010.6894263607</v>
+        <v>139540.9019093735</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.157687717106392e-06</v>
+        <v>9.143200716793137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>105843.3534530733</v>
+        <v>126223.3140780663</v>
       </c>
     </row>
   </sheetData>
@@ -4583,28 +4583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.58685810888861</v>
+        <v>118.6623764738284</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.0496680253148</v>
+        <v>162.359098506003</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.8287874278505</v>
+        <v>146.8637740170608</v>
       </c>
       <c r="AD2" t="n">
-        <v>93586.85810888861</v>
+        <v>118662.3764738284</v>
       </c>
       <c r="AE2" t="n">
-        <v>128049.6680253148</v>
+        <v>162359.098506003</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.682880428585479e-06</v>
+        <v>8.356348786077088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.5859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>115828.7874278505</v>
+        <v>146863.7740170608</v>
       </c>
     </row>
     <row r="3">
@@ -4689,28 +4689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.78382861506726</v>
+        <v>103.5009303669115</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.7414629433939</v>
+        <v>141.6145390667344</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.4089443747972</v>
+        <v>128.0990462154973</v>
       </c>
       <c r="AD3" t="n">
-        <v>86783.82861506726</v>
+        <v>103500.9303669115</v>
       </c>
       <c r="AE3" t="n">
-        <v>118741.4629433939</v>
+        <v>141614.5390667343</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.146605967641696e-06</v>
+        <v>9.038230517368396e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.162760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>107408.9443747972</v>
+        <v>128099.0462154973</v>
       </c>
     </row>
   </sheetData>
@@ -4986,28 +4986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.957717052685</v>
+        <v>168.2003570314296</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.2868582687867</v>
+        <v>230.1391489663391</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.7942177603863</v>
+        <v>208.1749915913823</v>
       </c>
       <c r="AD2" t="n">
-        <v>133957.717052685</v>
+        <v>168200.3570314296</v>
       </c>
       <c r="AE2" t="n">
-        <v>183286.8582687867</v>
+        <v>230139.1489663391</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.418389191122736e-06</v>
+        <v>6.392404005464139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.93359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>165794.2177603864</v>
+        <v>208174.9915913823</v>
       </c>
     </row>
     <row r="3">
@@ -5092,28 +5092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.71549785520325</v>
+        <v>106.8795777804124</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.7527021338647</v>
+        <v>146.2373535132881</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.0373565267404</v>
+        <v>132.2806657394343</v>
       </c>
       <c r="AD3" t="n">
-        <v>89715.49785520326</v>
+        <v>106879.5777804124</v>
       </c>
       <c r="AE3" t="n">
-        <v>122752.7021338647</v>
+        <v>146237.3535132881</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.074202845135974e-06</v>
+        <v>8.787989676251736e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.042317708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>111037.3565267403</v>
+        <v>132280.6657394343</v>
       </c>
     </row>
   </sheetData>
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.05314136966338</v>
+        <v>108.1699768686676</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.0052161848152</v>
+        <v>148.002934474228</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.0292797630008</v>
+        <v>133.8777421314711</v>
       </c>
       <c r="AD2" t="n">
-        <v>84053.14136966338</v>
+        <v>108169.9768686676</v>
       </c>
       <c r="AE2" t="n">
-        <v>115005.2161848152</v>
+        <v>148002.934474228</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.143327114597344e-06</v>
+        <v>9.225339806973706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.393880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>104029.2797630008</v>
+        <v>133877.7421314711</v>
       </c>
     </row>
     <row r="3">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.29546886152829</v>
+        <v>108.4123043605326</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.336779349919</v>
+        <v>148.3344976393319</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.3291990049791</v>
+        <v>134.1776613734493</v>
       </c>
       <c r="AD3" t="n">
-        <v>84295.46886152829</v>
+        <v>108412.3043605326</v>
       </c>
       <c r="AE3" t="n">
-        <v>115336.779349919</v>
+        <v>148334.4976393319</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.141901701431439e-06</v>
+        <v>9.223199285953824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.397135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>104329.1990049791</v>
+        <v>134177.6613734493</v>
       </c>
     </row>
   </sheetData>
@@ -5792,28 +5792,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.44257151648311</v>
+        <v>107.0171474927241</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.1698075752535</v>
+        <v>146.4255824628202</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2736013786321</v>
+        <v>132.4509303822041</v>
       </c>
       <c r="AD2" t="n">
-        <v>83442.57151648312</v>
+        <v>107017.1474927241</v>
       </c>
       <c r="AE2" t="n">
-        <v>114169.8075752535</v>
+        <v>146425.5824628202</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.96012541991623e-06</v>
+        <v>9.141322985723856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.791015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>103273.6013786321</v>
+        <v>132450.9303822041</v>
       </c>
     </row>
   </sheetData>
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.91649530282041</v>
+        <v>114.8360242270737</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.7642039428473</v>
+        <v>157.1237145552486</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.7614448297439</v>
+        <v>142.1280477626572</v>
       </c>
       <c r="AD2" t="n">
-        <v>91916.4953028204</v>
+        <v>114836.0242270737</v>
       </c>
       <c r="AE2" t="n">
-        <v>125764.2039428473</v>
+        <v>157123.7145552486</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.681097637042432e-06</v>
+        <v>8.876602996151179e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.285807291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>113761.4448297439</v>
+        <v>142128.0477626572</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.8819830101297</v>
+        <v>144.9637563007675</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.5548415066698</v>
+        <v>198.3458067201887</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.4225899664345</v>
+        <v>179.4159613069583</v>
       </c>
       <c r="AD2" t="n">
-        <v>115881.9830101297</v>
+        <v>144963.7563007675</v>
       </c>
       <c r="AE2" t="n">
-        <v>158554.8415066698</v>
+        <v>198345.8067201887</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.530830440390853e-06</v>
+        <v>7.383786231808112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.460286458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>143422.5899664345</v>
+        <v>179415.9613069583</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.60000206832379</v>
+        <v>113.3209967853949</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.2264315860561</v>
+        <v>155.050787171251</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.6567510978799</v>
+        <v>140.2529576588159</v>
       </c>
       <c r="AD2" t="n">
-        <v>88600.0020683238</v>
+        <v>113320.9967853948</v>
       </c>
       <c r="AE2" t="n">
-        <v>121226.4315860561</v>
+        <v>155050.7871712511</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.966797507922818e-06</v>
+        <v>8.815232104145676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>109656.7510978799</v>
+        <v>140252.9576588159</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.75048407075087</v>
+        <v>102.3449648577441</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.327595349917</v>
+        <v>140.0328960594933</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.1300143200657</v>
+        <v>126.6683529970169</v>
       </c>
       <c r="AD3" t="n">
-        <v>85750.48407075087</v>
+        <v>102344.9648577441</v>
       </c>
       <c r="AE3" t="n">
-        <v>117327.595349917</v>
+        <v>140032.8960594933</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.186794300065208e-06</v>
+        <v>9.140251141967488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>106130.0143200657</v>
+        <v>126668.3529970169</v>
       </c>
     </row>
   </sheetData>
@@ -10387,28 +10387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.0699837032381</v>
+        <v>150.7422730799294</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.1262694009572</v>
+        <v>206.2522283076022</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.7942184266049</v>
+        <v>186.5678051148039</v>
       </c>
       <c r="AD2" t="n">
-        <v>125069.9837032381</v>
+        <v>150742.2730799293</v>
       </c>
       <c r="AE2" t="n">
-        <v>171126.2694009572</v>
+        <v>206252.2283076022</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.694656060226943e-06</v>
+        <v>6.817434069695608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.578776041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>154794.2184266049</v>
+        <v>186567.8051148039</v>
       </c>
     </row>
     <row r="3">
@@ -10493,28 +10493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.04213778455252</v>
+        <v>106.1001929745166</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.8313811786511</v>
+        <v>145.1709648378311</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.20396515041</v>
+        <v>131.3160517024766</v>
       </c>
       <c r="AD3" t="n">
-        <v>89042.13778455253</v>
+        <v>106100.1929745166</v>
       </c>
       <c r="AE3" t="n">
-        <v>121831.3811786511</v>
+        <v>145170.9648378311</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.088666763750831e-06</v>
+        <v>8.841773220807923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.074869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>110203.96515041</v>
+        <v>131316.0517024766</v>
       </c>
     </row>
   </sheetData>
@@ -10790,28 +10790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.8722102750389</v>
+        <v>184.4808532420333</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.1158170584041</v>
+        <v>252.4148421264776</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.5896759216653</v>
+        <v>228.3247238604559</v>
       </c>
       <c r="AD2" t="n">
-        <v>141872.2102750389</v>
+        <v>184480.8532420333</v>
       </c>
       <c r="AE2" t="n">
-        <v>194115.8170584041</v>
+        <v>252414.8421264776</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.657312143114914e-06</v>
+        <v>6.096521443419517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.85286458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>175589.6759216653</v>
+        <v>228324.7238604559</v>
       </c>
     </row>
   </sheetData>
@@ -11087,28 +11087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.29109775760092</v>
+        <v>107.1187206850482</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.9625544958004</v>
+        <v>146.564559385651</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.0861282422004</v>
+        <v>132.5766435425753</v>
       </c>
       <c r="AD2" t="n">
-        <v>83291.09775760092</v>
+        <v>107118.7206850482</v>
       </c>
       <c r="AE2" t="n">
-        <v>113962.5544958004</v>
+        <v>146564.559385651</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.060641403441343e-06</v>
+        <v>9.223730283778941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.611979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103086.1282422004</v>
+        <v>132576.6435425752</v>
       </c>
     </row>
   </sheetData>
@@ -11384,28 +11384,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.65200683795477</v>
+        <v>108.9800780964558</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.8246103386109</v>
+        <v>149.111350713231</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.7704720887855</v>
+        <v>134.880372680296</v>
       </c>
       <c r="AD2" t="n">
-        <v>84652.00683795477</v>
+        <v>108980.0780964558</v>
       </c>
       <c r="AE2" t="n">
-        <v>115824.6103386109</v>
+        <v>149111.350713231</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.157493087854548e-06</v>
+        <v>9.192587279220613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.319010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>104770.4720887854</v>
+        <v>134880.372680296</v>
       </c>
     </row>
     <row r="3">
@@ -11490,28 +11490,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.01307369648735</v>
+        <v>109.3411449549884</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.3186379436005</v>
+        <v>149.6053783182206</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.2173503925271</v>
+        <v>135.3272509840376</v>
       </c>
       <c r="AD3" t="n">
-        <v>85013.07369648735</v>
+        <v>109341.1449549884</v>
       </c>
       <c r="AE3" t="n">
-        <v>116318.6379436005</v>
+        <v>149605.3783182206</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.143607183254032e-06</v>
+        <v>9.171856863746343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.332031249999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>105217.3503925271</v>
+        <v>135327.2509840376</v>
       </c>
     </row>
   </sheetData>
